--- a/结果/SVM分类/标准差/SVM_BE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_BE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C123E4D-204F-4DE9-BF03-64EA25D1C059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576B0AC-4048-4908-8DA3-D7FE4840C91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9576" yWindow="684" windowWidth="19668" windowHeight="11148" tabRatio="663" firstSheet="1" activeTab="5" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="biaozhuncha_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.9375</v>
       </c>
@@ -599,7 +617,7 @@
         <v>0.87837799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.94374999999999998</v>
       </c>
@@ -628,7 +646,7 @@
         <v>0.97468399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.94374999999999998</v>
       </c>
@@ -657,7 +675,7 @@
         <v>0.94736799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.91874999999999996</v>
       </c>
@@ -686,7 +704,7 @@
         <v>0.94047599999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.96250000000000002</v>
       </c>
@@ -713,6 +731,56 @@
       </c>
       <c r="K21">
         <v>0.90804600000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:L22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.94125000000000014</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95332620000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96233259999999987</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95899319999999988</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93002980000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93279139999999994</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92979039999999991</v>
+      </c>
+      <c r="L22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -724,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF288C-F9B7-4DD7-9A10-7E0ED627A21E}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1144,52 @@
       </c>
       <c r="K21">
         <v>0.79166700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.81500000000000006</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81624999999999992</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82374999999999987</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81810419999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80532900000000007</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82431319999999997</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81192580000000003</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82976899999999998</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82204999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1203,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A17" sqref="A17:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1427,6 +1541,34 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:G22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.90374999999999994</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84346639999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.840831</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84435040000000006</v>
+      </c>
       <c r="I22" s="2">
         <f>AVERAGE(I17:I21)</f>
         <v>0.96530420000000006</v>
@@ -1448,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF00BCE-01EE-4D0B-981E-3D918A8FDBAE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1786,6 +1928,52 @@
       </c>
       <c r="K21">
         <v>0.77215199999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.8274999999999999</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80874999999999986</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83250000000000013</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83650580000000008</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83445499999999995</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84339300000000006</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8197395999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78932020000000003</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82431979999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1796,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2042,6 +2230,52 @@
       </c>
       <c r="K21">
         <v>0.84705900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.89249999999999985</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92193860000000005</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92086979999999996</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91569219999999996</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86210780000000009</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84201400000000004</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84829100000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2052,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2300,6 +2534,259 @@
         <v>0.98648599999999997</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97249999999999992</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99761899999999992</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99777780000000005</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94991179999999997</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94634280000000004</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95467119999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B185B6A-911A-40C7-9DCA-E2B0AA509875}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99.375</v>
+      </c>
+      <c r="B4">
+        <v>98.75</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99.375</v>
+      </c>
+      <c r="B8">
+        <v>98.630099999999999</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99.375</v>
+      </c>
+      <c r="B21">
+        <v>98.795199999999994</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.75</v>
+      </c>
+      <c r="B34">
+        <v>97.468400000000003</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.791666666666671</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>99.576246666666663</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/SVM分类/标准差/SVM_BE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_BE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576B0AC-4048-4908-8DA3-D7FE4840C91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE1395-A437-43CD-8B3F-AA7908BB199C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="4" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:L21"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -781,6 +781,20 @@
       <c r="L22" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.94458333333333344</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.95821733333333325</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.93087053333333325</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF288C-F9B7-4DD7-9A10-7E0ED627A21E}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1192,6 +1206,20 @@
         <v>0.82204999999999995</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.81833333333333336</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.81591546666666659</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.82124826666666662</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6AFAC-B033-4ADE-B579-A856CAB177A5}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1580,6 +1608,20 @@
       <c r="K22" s="2">
         <f>AVERAGE(K17:K21)</f>
         <v>0.96903299999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.90625</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.84288259999999993</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.96895579999999992</v>
       </c>
     </row>
   </sheetData>
@@ -1590,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF00BCE-01EE-4D0B-981E-3D918A8FDBAE}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1974,6 +2016,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.82431979999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.8381179333333334</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.81112653333333329</v>
       </c>
     </row>
   </sheetData>
@@ -1984,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2276,6 +2332,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.84829100000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.88583333333333325</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.91950019999999999</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.85080426666666675</v>
       </c>
     </row>
   </sheetData>
@@ -2286,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2578,6 +2648,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.95467119999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.97416666666666663</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.99846559999999995</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.95030859999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B185B6A-911A-40C7-9DCA-E2B0AA509875}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
